--- a/overall_report.xlsx
+++ b/overall_report.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,12 +428,62 @@
       <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
         </is>
       </c>
     </row>
@@ -444,10 +494,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>187</v>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -457,10 +537,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200000</v>
+        <v>2747997.4</v>
       </c>
       <c r="C3" t="n">
-        <v>1058088</v>
+        <v>3644024.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7991187.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1504991</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1552891</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1619821</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2984590</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2010266</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2114982</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2849162.4</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +580,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200000</v>
+        <v>1733306.4</v>
       </c>
       <c r="C4" t="n">
+        <v>3485764.6</v>
+      </c>
+      <c r="D4" t="n">
         <v>500000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4273172.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>700000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>900000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1650000</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +623,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200000</v>
+        <v>4691</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>8260</v>
+      </c>
+      <c r="D5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8870</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4991</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2891</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5251</v>
+      </c>
+      <c r="I5" t="n">
+        <v>984590</v>
+      </c>
+      <c r="J5" t="n">
+        <v>266</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4967</v>
+      </c>
+      <c r="L5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="6">
@@ -496,17 +666,102 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200000</v>
+        <v>549599.48</v>
       </c>
       <c r="C6" t="n">
-        <v>5658.22</v>
+        <v>911006.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1598237.52</v>
+      </c>
+      <c r="F6" t="n">
+        <v>376247.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>517630.33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>539940.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1492295</v>
+      </c>
+      <c r="J6" t="n">
+        <v>670088.67</v>
+      </c>
+      <c r="K6" t="n">
+        <v>422996.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>775000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>569832.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-03</t>
         </is>
       </c>
     </row>
@@ -517,7 +772,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +815,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>534838.33</v>
+        <v>2573090</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2821021.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1401800.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7943360.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1475140</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1440124.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1905887.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2259841</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2561435.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2271840.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1568104.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2636105.5</v>
       </c>
     </row>
     <row r="14">
@@ -537,7 +858,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287950</v>
+        <v>1425000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4273000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1431555</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1222720</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1736646</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1430498</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1965824</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2072784</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1342419</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1510786</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +901,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13147</v>
+        <v>29.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +944,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133709.58</v>
+        <v>257309</v>
+      </c>
+      <c r="C16" t="n">
+        <v>352627.69</v>
+      </c>
+      <c r="D16" t="n">
+        <v>175225.06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>661946.71</v>
+      </c>
+      <c r="F16" t="n">
+        <v>295028</v>
+      </c>
+      <c r="G16" t="n">
+        <v>240020.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>272269.64</v>
+      </c>
+      <c r="I16" t="n">
+        <v>322834.43</v>
+      </c>
+      <c r="J16" t="n">
+        <v>365919.36</v>
+      </c>
+      <c r="K16" t="n">
+        <v>324548.64</v>
+      </c>
+      <c r="L16" t="n">
+        <v>224014.93</v>
+      </c>
+      <c r="M16" t="n">
+        <v>439350.92</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +1009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,27 +1062,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>262050</v>
+        <v>131892.72</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>287950</v>
+        <v>1425000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -671,7 +1091,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BLKNEFT/PAY230505/BULK TRANSFER</t>
+          <t>INF/NEFT/0271497101/YESB0000030/TRF/EASYFIX0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -683,27 +1103,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>818699.67</v>
+        <v>198293.22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>132801.33</v>
+        <v>578579</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -712,7 +1132,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>NEFT/IDFBH23140437315/MOTO BUSINESS INDIA PRIVATE LIMITED/ICIC0000002</t>
+          <t>GIB/000079270689/GT/220407003995</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -724,27 +1144,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>717759.67</v>
+        <v>1306894.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100940</v>
+        <v>250000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -753,7 +1173,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NEFT/IDFBH23140437502/MOTO BUSINESS INDIA PRIVATE LIMITED/ICIC0000002</t>
+          <t>INF/NEFT/0271041791/YESB0000030/FUNTRF FOR CR/EASYFIX</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -765,27 +1185,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>248903</v>
+        <v>12210.72</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13147</v>
+        <v>119682</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -794,10 +1214,2306 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BLKIFT/PAY230505/BULK TRANSFER9/PENNYDROPEXPENS/0123CHPNYEXP/FTTRANSFERP2A</t>
+          <t>GIB/000078461082/EFO/10122040232022+GST0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1556894.7</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>94730</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GIB/000078092634/DAX0/63903400704222856</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1021298.3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>INF/NEFT/0278108971/YESB0000030/TRFFOR CRM AND/EASYFIX</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2521298.3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2022-05-26</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>INF/NEFT/0277590721/YESB0000030/FUNTRF YES BA/EASYFIX</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>293.22</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>198000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>INF/NEFT/0273793831/YESB0000030/FUNTRF/EASYFIX00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>27301.22</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-05-07</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>60617</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>GIB/000079955872/DAX0/6391718070522254922+GST0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>100422.22</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-05-07</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>27871</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>GIB/000079951707/DAX0/63903400705229751</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>21296.32</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>INF/NEFT/0278703581/YESB0000030/FUNTRF/EASYFIX</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>265410.32</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>130208</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>GIB/000081718855/EFO/101220601234</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>395618.32</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>125678</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>GIB/000081718070/EFO/101220501400</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>119525.32</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>76419</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>GIB/000081722604/DAX0/6390340150622148322+GST0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>208824.32</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>28776</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GIB/000081720535/DAX0/63903401506221392</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>128538.42</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4273000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>INF/NEFT/0283947661/YESB0000030/CPY PAYMENT TR/EASYFIX</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2000668.4</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1153627</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>GIB/000082813867/GT/220707000212</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1001199.4</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>999469</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>GIB/000082989001/GT/220707000283</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>169941.42</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>700000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>INF/NEFT/0285847811/YESB0000030/FUNTRF/EASYFIX</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>169941.42</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>REJECT:2:DRAWERSIGNATURE DIFFE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Outward bounce</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>42182.92</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1431555</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>GIB/000085722199/GT/220807000336</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>790322.92</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2022-08-06</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>GIB/000085484454/DAX0/63903400608225084</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>775081.92</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2022-08-06</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>12504</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>GIB/000085486895/DAX0/63903400608225277</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>787585.92</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2022-08-06</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2737</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>GIB/000085485811/DAX0/63903400608225189</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>773737.92</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2022-08-06</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1344</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>GIB/000085488007/DAX0/63903400608225371</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>230355.42</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1222720</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>GIB/000087108092/GT/220907000219</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>107049.42</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>123306</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>GIB/000087305970/EFO/10122080231400</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>115608.92</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>54565</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>GIB/000086785039/DAX0/6390340060922121222+GST0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>170173.92</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>GIB/000086784023/DAX0/63903400609221170</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>103075.42</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>12504</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>GIB/000086786426/DAX0/63903400609221319</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>187864.42</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1736646</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>GIB/000088613162/GT/221007000178</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>23903.42</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>118878</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>GIB/000089028543/EFO/10122090104222+GST0</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>159864.42</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>GIB/000088620253/DAX0/63903400710227812</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>138275.42</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>13750</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>GIB/000088625370/DAX0/63903400710228256AX0/63903400710228989</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>152025.42</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>7839</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>GIB/000088622588/DAX0/63903400710228006</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1526860.9</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1430498</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>GIB/000090479385/GT/221107000394</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>748622.92</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>550000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>INF/NEFT/0300980021/YESB0000030/FUNTRF YES BA/EASYFIX</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1298624.9</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>116326</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>GIB/000090661530/EFO/101221000860</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1414950.9</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>111910</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>GIB/000090643207/EFO/101221101814</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1979868.9</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>30257</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>GIB/000090295684/DAX0/22110700269290ICI</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>683128.92</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2022-12-08</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1965824</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>GIB/000091754565/GT/221207000227</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>197453.42</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2022-12-30</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>360056</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>GIB/000092873004/GT/221207003122</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>557538.92</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>125590</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>GIB/000092166322/EFO/10122120151622+GST0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2687390.9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>71500</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>GIB/000091616147/DAX0/22120700152512ICI</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2648954.9</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>24686</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>GIB/000091619233/DAX0/22120700158742ICI</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>156737.42</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2072784</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>GIB/000093583188/GT/230107000417</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>30657.42</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>126080</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>GIB/000093698618/EFO/10123010153022+GST0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>165453.42</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>GIB/000093432858/DAX0/23010700363188ICIAX0/23010700370910ICI</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>124506.42</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>26335</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>GIB/000093439930/DAX0/23010700385455ICI</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>150841.42</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>13750</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>GIB/000093437525/DAX0/23010700379333ICI</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>153619.92</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1342419</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>GIB/000095257587/GT/23020700075500</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>22519.92</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>131100</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>GIB/000095289009/EFO/10123020232722+GST0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>100094.92</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>40500</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>GIB/000094924154/DAX0/23020700471117ICI</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>61773.92</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>38321</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>GIB/000094930621/DAX0/23020700492041ICI</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>48023.92</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>13750</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>GIB/000094932883/DAX0/23020700500503ICI</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>235547.32</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1510786</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GIB/000099012720/GT/2303070030150000000000</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>47200.42</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1032005</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>GIB/000096544650/GT/230307000299</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>55490.42</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>67000</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>GIB/000096429946/DAX0/23030700474598ICI</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>41740.42</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>13750</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>GIB/000096430593/DAX0/23030700476712ICI</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Direct Expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>29205.42</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>12535</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>debit</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>GIB/000096431148/DAX0/23030700478502ICI</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Direct Expense</t>
         </is>
@@ -814,7 +3530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,27 +3583,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>200000</v>
+        <v>1756694.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200000</v>
+        <v>1733306.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -896,39 +3612,39 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BB/CHQ DEP/000007/ONLY ELECTRIQ SOLUTI/HDFC BANK L</t>
+          <t>SI/21-22/FEB/582802202222+GST0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Cash/cheque deposit</t>
+          <t>Tax/other-credit</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>948551</v>
+        <v>776872.22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>500000</v>
+        <v>750000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -937,7 +3653,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RTGS/HDFCR52023052057815327/ONLY ELECTRIQ SOLUTIONS PRIVATELIMC O OESPL S O T/HDFC0000240</t>
+          <t>NEFT-0N117221166894008-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -949,27 +3665,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>550000</v>
+        <v>1556894.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-05-04</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -978,7 +3694,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>RTGS/HDFCR52023050453847508/ONLY ELECTRIQ SOLUTIONS PRIVATELIMC O OESPL S O T/HDFC0000240</t>
+          <t>NEFT-0N102221131146774-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -990,27 +3706,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>448301</v>
+        <v>22181.22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-05-20</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1019,39 +3735,39 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>UPI/MOB/314008115028/PAYMENT FROM PHONEPEROM PHONEPE</t>
+          <t>NEFT-0SBIN222114931565-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Revenue PG Non split</t>
+          <t>Transfer-in/Revenue-other</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>417347</v>
+        <v>26872.22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3500</v>
+        <v>4691</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1060,39 +3776,39 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>UPI/MOB/350337735274/NA</t>
+          <t>NEFT-0SBIN222114930881-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Revenue UPI</t>
+          <t>Transfer-in/Revenue-other</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10134303351</v>
+        <v>82705000482</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IDFC Bank</t>
+          <t>ICICI Bank</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>323619</v>
+        <v>3513038.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3000</v>
+        <v>3485764.6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1101,12 +3817,1488 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>UPI/MOB/313182268839/PAYMENT FROM PHONEPE</t>
+          <t>SI/22-23/APR/1714042022</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Revenue PG Non split</t>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>100293.22</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NEFT-0N126221188695300-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>150293.22</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2022-05-07</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NEFT-0N127221191593195-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3521298.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>8260</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN122145068394-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>521296.32</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NEFT-0N158221261089813-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4392670.4</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4273172.6</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SI/22-23/MAY/0611052022</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3201540.4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NEFT-0N188221329566839-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>769941.42</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CLG/EASY FIXHANDY0SOLUTION/000002/HDF/18.07.2022</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Cash/cheque deposit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>179086.42</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>9145</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN522201279289-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4401540.4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>8870</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN522186074550-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1473739.9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>700000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NEFT-0YESB22226558374-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>817322.92</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>650000</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CLG/EASY FIXHANDY/000003/HD26.07.2022</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Cash/cheque deposit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>197173.92</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NEFT-0YESB22295416608-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>47173.92</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4991</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN322224165401-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1453077.4</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NEFT-0YESB22513505282-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>309940.42</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NEFT-0YESB22736660573-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>109940.42</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2891</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN522264946163-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1924512.4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>900000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NEFT-0YESB22804004718-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1024512.4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>714570</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ACH/AADCE4878L-AY2021-22/CE22201490533</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>142781.42</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>5251</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN522283569355-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2023875.9</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NEFT-0YESB23094591095-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2957358.9</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>984590</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ACH/AADCE4878L-AY2022-23/CE22204674407</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2758890.9</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NEFT-0YESIB23410012129-EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>758622.92</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN122336754259-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>758888.92</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>266</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN122336757518-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2229523.4</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NEFT-0YESCX30100037640EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>629521.42</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>RTGS-0HDFCR520230110740396-EASY FIXHANDYSOLUTIONINDIA PVT -59208882122666-HDFC0002853</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>129521.42</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5015</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN223009873859-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>40594.92</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN523030239977-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>35594.92</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4967</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN323027135402-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1496040.9</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NEFT-0YESCX30450031856EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>140594.92</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NEFT-0YESCX30380016123EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1746335.3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NEFT-0YESCX30870050825EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1079207.4</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NEFT-0YESCX30690001462EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>122490.42</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NEFT-0YESCX30660043124EASY FIX HANDYSOLUTIONS INDIAPVT --0003084000003731-YESB0000001</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>96333.32000000001</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>44162.4</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TRFR FROM: PENGINVENTIVE PRIVALIMITED0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>82705000482</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ICICI Bank</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>52200.42</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NEFT-0SBIN523078638034-ANGELFURNITUR/ATTN//INB-00000035602104065-SBIN0000659</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Transfer-in/Revenue-other</t>
         </is>
       </c>
     </row>
